--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e_HK.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.hennig\World Resources Institute\TRAC City - HK 2050 is now\InputData FOR HONG KONG\UPDATE InputData for Hong Kong\InputData\indst\BPEiC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\indst\BPEiC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="6_{1EA72DD2-14E7-47F5-93CD-364F68CE50D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{63D9D644-112D-4BC3-837A-852E553D3B0B}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="6_{1EA72DD2-14E7-47F5-93CD-364F68CE50D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EC77164-186B-4630-9ACE-20D091BF915D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="44" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -624,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +821,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1061,7 +1068,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1103,6 +1110,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
@@ -1674,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F9E0A-DED7-4839-ACC1-9A4A4D7C3CE4}">
-  <dimension ref="A75:G85"/>
+  <dimension ref="A75:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,17 +1716,17 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="D76">
-        <v>2300</v>
-      </c>
-      <c r="E76">
-        <v>2490</v>
-      </c>
-      <c r="F76">
-        <v>1710</v>
-      </c>
-      <c r="G76">
-        <v>31</v>
+      <c r="D76" s="30">
+        <v>2290</v>
+      </c>
+      <c r="E76" s="30">
+        <v>2470</v>
+      </c>
+      <c r="F76" s="30">
+        <v>1660</v>
+      </c>
+      <c r="G76" s="30">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -1725,19 +1735,19 @@
       </c>
       <c r="D77">
         <f>D76*10^9</f>
-        <v>2300000000000</v>
+        <v>2290000000000</v>
       </c>
       <c r="E77">
         <f t="shared" ref="E77:G77" si="0">E76*10^9</f>
-        <v>2490000000000</v>
-      </c>
-      <c r="F77">
+        <v>2470000000000</v>
+      </c>
+      <c r="F77" s="29">
         <f t="shared" si="0"/>
-        <v>1710000000000</v>
+        <v>1660000000000</v>
       </c>
       <c r="G77">
         <f t="shared" si="0"/>
-        <v>31000000000</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -1746,7 +1756,7 @@
       </c>
       <c r="D78">
         <f>(D76+E76+F76+G76)*10^9</f>
-        <v>6531000000000</v>
+        <v>6450000000000</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -1758,7 +1768,7 @@
         <v>4.7011114944365641E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="C81" t="s">
         <v>116</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>8.3430934430058779E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:7">
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -1776,13 +1786,19 @@
         <v>0.94464579161262852</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>118</v>
       </c>
       <c r="E85" s="28">
         <v>1.0254314486434324E-2</v>
       </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8800,8 +8816,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -8867,7 +8883,7 @@
       </c>
       <c r="I2" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A2-'BPEiC-CO2'!$A$2)</f>
-        <v>1615344303657.5947</v>
+        <v>1568112014076.9634</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8895,9 +8911,9 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A3-'BPEiC-CO2'!$A$2)</f>
-        <v>1598780055164.0195</v>
+      <c r="I3" s="31">
+        <f>1.74*10^12*'Climate Ready Hong Kong'!D82</f>
+        <v>1643683677405.9736</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8927,7 +8943,7 @@
       </c>
       <c r="I4" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A4-'BPEiC-CO2'!$A$2)</f>
-        <v>1582385661683.7288</v>
+        <v>1536117075084.7896</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8957,7 +8973,7 @@
       </c>
       <c r="I5" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A5-'BPEiC-CO2'!$A$2)</f>
-        <v>1566159381469.9993</v>
+        <v>1520365247508.8884</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8987,7 +9003,7 @@
       </c>
       <c r="I6" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A6-'BPEiC-CO2'!$A$2)</f>
-        <v>1550099490636.5266</v>
+        <v>1504774944126.6868</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9017,7 +9033,7 @@
       </c>
       <c r="I7" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A7-'BPEiC-CO2'!$A$2)</f>
-        <v>1534204282974.2778</v>
+        <v>1489344508618.3049</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9047,7 +9063,7 @@
       </c>
       <c r="I8" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A8-'BPEiC-CO2'!$A$2)</f>
-        <v>1518472069770.2253</v>
+        <v>1474072301648.2888</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9077,7 +9093,7 @@
       </c>
       <c r="I9" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A9-'BPEiC-CO2'!$A$2)</f>
-        <v>1502901179627.9343</v>
+        <v>1458956700691.4451</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9107,7 +9123,7 @@
       </c>
       <c r="I10" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A10-'BPEiC-CO2'!$A$2)</f>
-        <v>1487489958289.9963</v>
+        <v>1443996099860.4644</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9137,7 +9153,7 @@
       </c>
       <c r="I11" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A11-'BPEiC-CO2'!$A$2)</f>
-        <v>1472236768462.2776</v>
+        <v>1429188909735.3105</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9167,7 +9183,7 @@
       </c>
       <c r="I12" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A12-'BPEiC-CO2'!$A$2)</f>
-        <v>1457139989639.9736</v>
+        <v>1414533557194.3606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9197,7 +9213,7 @@
       </c>
       <c r="I13" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A13-'BPEiC-CO2'!$A$2)</f>
-        <v>1442198017935.4458</v>
+        <v>1400028485247.2749</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9227,7 +9243,7 @@
       </c>
       <c r="I14" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A14-'BPEiC-CO2'!$A$2)</f>
-        <v>1427409265907.8235</v>
+        <v>1385672152869.583</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9257,7 +9273,7 @@
       </c>
       <c r="I15" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A15-'BPEiC-CO2'!$A$2)</f>
-        <v>1412772162394.3542</v>
+        <v>1371463034838.9639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9287,7 +9303,7 @@
       </c>
       <c r="I16" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A16-'BPEiC-CO2'!$A$2)</f>
-        <v>1398285152343.4827</v>
+        <v>1357399621573.2056</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9317,7 +9333,7 @@
       </c>
       <c r="I17" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A17-'BPEiC-CO2'!$A$2)</f>
-        <v>1383946696649.6409</v>
+        <v>1343480418969.8269</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9347,7 +9363,7 @@
       </c>
       <c r="I18" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A18-'BPEiC-CO2'!$A$2)</f>
-        <v>1369755271989.7334</v>
+        <v>1329703948247.3438</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9377,7 +9393,7 @@
       </c>
       <c r="I19" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A19-'BPEiC-CO2'!$A$2)</f>
-        <v>1355709370661.2993</v>
+        <v>1316068745788.1621</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9407,7 +9423,7 @@
       </c>
       <c r="I20" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A20-'BPEiC-CO2'!$A$2)</f>
-        <v>1341807500422.3325</v>
+        <v>1302573362983.083</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9437,7 +9453,7 @@
       </c>
       <c r="I21" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A21-'BPEiC-CO2'!$A$2)</f>
-        <v>1328048184332.7454</v>
+        <v>1289216366077.4021</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9467,7 +9483,7 @@
       </c>
       <c r="I22" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A22-'BPEiC-CO2'!$A$2)</f>
-        <v>1314429960597.4595</v>
+        <v>1275996336018.5864</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -9497,7 +9513,7 @@
       </c>
       <c r="I23" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A23-'BPEiC-CO2'!$A$2)</f>
-        <v>1300951382411.1016</v>
+        <v>1262911868305.5139</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9527,7 +9543,7 @@
       </c>
       <c r="I24" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A24-'BPEiC-CO2'!$A$2)</f>
-        <v>1287611017804.2966</v>
+        <v>1249961572839.2588</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -9557,7 +9573,7 @@
       </c>
       <c r="I25" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A25-'BPEiC-CO2'!$A$2)</f>
-        <v>1274407449491.5337</v>
+        <v>1237144073775.407</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -9587,7 +9603,7 @@
       </c>
       <c r="I26" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A26-'BPEiC-CO2'!$A$2)</f>
-        <v>1261339274720.5928</v>
+        <v>1224458009377.8855</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -9617,7 +9633,7 @@
       </c>
       <c r="I27" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A27-'BPEiC-CO2'!$A$2)</f>
-        <v>1248405105123.5166</v>
+        <v>1211902031874.2913</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -9647,7 +9663,7 @@
       </c>
       <c r="I28" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A28-'BPEiC-CO2'!$A$2)</f>
-        <v>1235603566569.1101</v>
+        <v>1199474807312.7034</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -9677,7 +9693,7 @@
       </c>
       <c r="I29" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A29-'BPEiC-CO2'!$A$2)</f>
-        <v>1222933299016.9504</v>
+        <v>1187175015419.9639</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -9707,7 +9723,7 @@
       </c>
       <c r="I30" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A30-'BPEiC-CO2'!$A$2)</f>
-        <v>1210392956372.8982</v>
+        <v>1175001349461.4099</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -9737,7 +9753,7 @@
       </c>
       <c r="I31" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A31-'BPEiC-CO2'!$A$2)</f>
-        <v>1197981206346.0852</v>
+        <v>1162952516102.0479</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -9767,7 +9783,7 @@
       </c>
       <c r="I32" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A32-'BPEiC-CO2'!$A$2)</f>
-        <v>1185696730307.3748</v>
+        <v>1151027235269.1475</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -9797,7 +9813,7 @@
       </c>
       <c r="I33" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A33-'BPEiC-CO2'!$A$2)</f>
-        <v>1173538223149.2659</v>
+        <v>1139224240016.2466</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -9827,7 +9843,7 @@
       </c>
       <c r="I34" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A34-'BPEiC-CO2'!$A$2)</f>
-        <v>1161504393147.2419</v>
+        <v>1127542276388.5508</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -9857,7 +9873,7 @@
       </c>
       <c r="I35" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A35-'BPEiC-CO2'!$A$2)</f>
-        <v>1149593961822.5352</v>
+        <v>1115980103289.7124</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -9887,7 +9903,7 @@
       </c>
       <c r="I36" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$82*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A36-'BPEiC-CO2'!$A$2)</f>
-        <v>1137805663806.301</v>
+        <v>1104536492349.9766</v>
       </c>
     </row>
   </sheetData>
@@ -9904,7 +9920,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -9977,7 +9993,7 @@
       </c>
       <c r="I2" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A2-'BPEiC-CO2'!$A$2)</f>
-        <v>80389006554.86525</v>
+        <v>78038450807.646957</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10005,9 +10021,9 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A3-'BPEiC-CO2'!$A$2)</f>
-        <v>79564672400.399628</v>
+      <c r="I3" s="31">
+        <f>1.74*10^12*'Climate Ready Hong Kong'!D80</f>
+        <v>81799340003.196213</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10037,7 +10053,7 @@
       </c>
       <c r="I4" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A4-'BPEiC-CO2'!$A$2)</f>
-        <v>78748791227.59581</v>
+        <v>76446194992.870773</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10067,7 +10083,7 @@
       </c>
       <c r="I5" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A5-'BPEiC-CO2'!$A$2)</f>
-        <v>77941276356.921478</v>
+        <v>75662291668.122604</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10097,7 +10113,7 @@
       </c>
       <c r="I6" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A6-'BPEiC-CO2'!$A$2)</f>
-        <v>77142041997.683517</v>
+        <v>74886426734.593353</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10127,7 +10143,7 @@
       </c>
       <c r="I7" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A7-'BPEiC-CO2'!$A$2)</f>
-        <v>76351003238.913544</v>
+        <v>74118517764.091507</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10157,7 +10173,7 @@
       </c>
       <c r="I8" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A8-'BPEiC-CO2'!$A$2)</f>
-        <v>75568076040.34697</v>
+        <v>73358483173.670151</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10187,7 +10203,7 @@
       </c>
       <c r="I9" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A9-'BPEiC-CO2'!$A$2)</f>
-        <v>74793177223.494461</v>
+        <v>72606242216.959534</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10217,7 +10233,7 @@
       </c>
       <c r="I10" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A10-'BPEiC-CO2'!$A$2)</f>
-        <v>74026224462.80513</v>
+        <v>71861714975.588593</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10247,7 +10263,7 @@
       </c>
       <c r="I11" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A11-'BPEiC-CO2'!$A$2)</f>
-        <v>73267136276.920151</v>
+        <v>71124822350.694397</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10277,7 +10293,7 @@
       </c>
       <c r="I12" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A12-'BPEiC-CO2'!$A$2)</f>
-        <v>72515832020.016174</v>
+        <v>70395486054.518616</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10307,7 +10323,7 @@
       </c>
       <c r="I13" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A13-'BPEiC-CO2'!$A$2)</f>
-        <v>71772231873.237473</v>
+        <v>69673628602.090179</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10337,7 +10353,7 @@
       </c>
       <c r="I14" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A14-'BPEiC-CO2'!$A$2)</f>
-        <v>71036256836.216019</v>
+        <v>68959173302.993317</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10367,7 +10383,7 @@
       </c>
       <c r="I15" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A15-'BPEiC-CO2'!$A$2)</f>
-        <v>70307828718.678329</v>
+        <v>68252044253.219894</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10397,7 +10413,7 @@
       </c>
       <c r="I16" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A16-'BPEiC-CO2'!$A$2)</f>
-        <v>69586870132.138657</v>
+        <v>67552166327.105347</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10427,7 +10443,7 @@
       </c>
       <c r="I17" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A17-'BPEiC-CO2'!$A$2)</f>
-        <v>68873304481.677032</v>
+        <v>66859465169.347282</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10457,7 +10473,7 @@
       </c>
       <c r="I18" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A18-'BPEiC-CO2'!$A$2)</f>
-        <v>68167055957.801971</v>
+        <v>66173867187.105995</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10487,7 +10503,7 @@
       </c>
       <c r="I19" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A19-'BPEiC-CO2'!$A$2)</f>
-        <v>67468049528.396301</v>
+        <v>65495299542.185875</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -10517,7 +10533,7 @@
       </c>
       <c r="I20" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A20-'BPEiC-CO2'!$A$2)</f>
-        <v>66776210930.745804</v>
+        <v>64823690143.297089</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -10547,7 +10563,7 @@
       </c>
       <c r="I21" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A21-'BPEiC-CO2'!$A$2)</f>
-        <v>66091466663.64946</v>
+        <v>64158967638.396538</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -10577,7 +10593,7 @@
       </c>
       <c r="I22" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A22-'BPEiC-CO2'!$A$2)</f>
-        <v>65413743979.61071</v>
+        <v>63501061407.10746</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10607,7 +10623,7 @@
       </c>
       <c r="I23" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A23-'BPEiC-CO2'!$A$2)</f>
-        <v>64742970877.108681</v>
+        <v>62849901553.216606</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -10637,7 +10653,7 @@
       </c>
       <c r="I24" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A24-'BPEiC-CO2'!$A$2)</f>
-        <v>64079076092.948746</v>
+        <v>62205418897.248482</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10667,7 +10683,7 @@
       </c>
       <c r="I25" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A25-'BPEiC-CO2'!$A$2)</f>
-        <v>63421989094.691498</v>
+        <v>61567544969.115715</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10697,7 +10713,7 @@
       </c>
       <c r="I26" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A26-'BPEiC-CO2'!$A$2)</f>
-        <v>62771640073.159317</v>
+        <v>60936212000.844711</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10727,7 +10743,7 @@
       </c>
       <c r="I27" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A27-'BPEiC-CO2'!$A$2)</f>
-        <v>62127959935.019875</v>
+        <v>60311352919.376015</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -10757,7 +10773,7 @@
       </c>
       <c r="I28" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A28-'BPEiC-CO2'!$A$2)</f>
-        <v>61490880295.445595</v>
+        <v>59692901339.4384</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -10787,7 +10803,7 @@
       </c>
       <c r="I29" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A29-'BPEiC-CO2'!$A$2)</f>
-        <v>60860333470.848404</v>
+        <v>59080791556.496109</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10817,7 +10833,7 @@
       </c>
       <c r="I30" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A30-'BPEiC-CO2'!$A$2)</f>
-        <v>60236252471.689064</v>
+        <v>58474958539.768326</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -10847,7 +10863,7 @@
       </c>
       <c r="I31" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A31-'BPEiC-CO2'!$A$2)</f>
-        <v>59618570995.3601</v>
+        <v>57875337925.32032</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -10877,7 +10893,7 @@
       </c>
       <c r="I32" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A32-'BPEiC-CO2'!$A$2)</f>
-        <v>59007223419.141869</v>
+        <v>57281866009.225433</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -10907,7 +10923,7 @@
       </c>
       <c r="I33" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A33-'BPEiC-CO2'!$A$2)</f>
-        <v>58402144793.23069</v>
+        <v>56694479740.797035</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -10937,7 +10953,7 @@
       </c>
       <c r="I34" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A34-'BPEiC-CO2'!$A$2)</f>
-        <v>57803270833.838638</v>
+        <v>56113116715.890129</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -10967,7 +10983,7 @@
       </c>
       <c r="I35" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A35-'BPEiC-CO2'!$A$2)</f>
-        <v>57210537916.363914</v>
+        <v>55537715170.271393</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -10997,7 +11013,7 @@
       </c>
       <c r="I36" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$80*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A36-'BPEiC-CO2'!$A$2)</f>
-        <v>56623883068.631447</v>
+        <v>54968213973.057426</v>
       </c>
     </row>
   </sheetData>
@@ -11014,7 +11030,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -11080,7 +11096,7 @@
       </c>
       <c r="I2" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A2-'BPEiC-CO2'!$A$2)</f>
-        <v>14266689787.540051</v>
+        <v>13849535115.389757</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11108,9 +11124,9 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A3-'BPEiC-CO2'!$A$2)</f>
-        <v>14120394663.778214</v>
+      <c r="I3" s="31">
+        <f>1.74*10^12*'Climate Ready Hong Kong'!D81</f>
+        <v>14516982590.830227</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11140,7 +11156,7 @@
       </c>
       <c r="I4" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A4-'BPEiC-CO2'!$A$2)</f>
-        <v>13975599696.223263</v>
+        <v>13566956430.251823</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11170,7 +11186,7 @@
       </c>
       <c r="I5" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A5-'BPEiC-CO2'!$A$2)</f>
-        <v>13832289501.801674</v>
+        <v>13427836592.392269</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11200,7 +11216,7 @@
       </c>
       <c r="I6" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A6-'BPEiC-CO2'!$A$2)</f>
-        <v>13690448855.182795</v>
+        <v>13290143333.101427</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11230,7 +11246,7 @@
       </c>
       <c r="I7" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A7-'BPEiC-CO2'!$A$2)</f>
-        <v>13550062687.161306</v>
+        <v>13153862023.794016</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11260,7 +11276,7 @@
       </c>
       <c r="I8" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A8-'BPEiC-CO2'!$A$2)</f>
-        <v>13411116083.056255</v>
+        <v>13018978185.890867</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11290,7 +11306,7 @@
       </c>
       <c r="I9" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A9-'BPEiC-CO2'!$A$2)</f>
-        <v>13273594281.126518</v>
+        <v>12885477489.280714</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11320,7 +11336,7 @@
       </c>
       <c r="I10" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A10-'BPEiC-CO2'!$A$2)</f>
-        <v>13137482671.00251</v>
+        <v>12753345750.79776</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11350,7 +11366,7 @@
       </c>
       <c r="I11" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A11-'BPEiC-CO2'!$A$2)</f>
-        <v>13002766792.133968</v>
+        <v>12622568932.714848</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11380,7 +11396,7 @@
       </c>
       <c r="I12" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A12-'BPEiC-CO2'!$A$2)</f>
-        <v>12869432332.253662</v>
+        <v>12493133141.252094</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11410,7 +11426,7 @@
       </c>
       <c r="I13" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A13-'BPEiC-CO2'!$A$2)</f>
-        <v>12737465125.856848</v>
+        <v>12365024625.1008</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11440,7 +11456,7 @@
       </c>
       <c r="I14" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A14-'BPEiC-CO2'!$A$2)</f>
-        <v>12606851152.696321</v>
+        <v>12238229773.962511</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11470,7 +11486,7 @@
       </c>
       <c r="I15" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A15-'BPEiC-CO2'!$A$2)</f>
-        <v>12477576536.292906</v>
+        <v>12112735117.103056</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11500,7 +11516,7 @@
       </c>
       <c r="I16" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A16-'BPEiC-CO2'!$A$2)</f>
-        <v>12349627542.461206</v>
+        <v>11988527321.921404</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11530,7 +11546,7 @@
       </c>
       <c r="I17" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A17-'BPEiC-CO2'!$A$2)</f>
-        <v>12222990577.850475</v>
+        <v>11865593192.533211</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11560,7 +11576,7 @@
       </c>
       <c r="I18" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A18-'BPEiC-CO2'!$A$2)</f>
-        <v>12097652188.500473</v>
+        <v>11743919668.368881</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11590,7 +11606,7 @@
       </c>
       <c r="I19" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A19-'BPEiC-CO2'!$A$2)</f>
-        <v>11973599058.412088</v>
+        <v>11623493822.786005</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11620,7 +11636,7 @@
       </c>
       <c r="I20" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A20-'BPEiC-CO2'!$A$2)</f>
-        <v>11850818008.132658</v>
+        <v>11504302861.696032</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -11650,7 +11666,7 @@
       </c>
       <c r="I21" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A21-'BPEiC-CO2'!$A$2)</f>
-        <v>11729295993.355766</v>
+        <v>11386334122.205013</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11680,7 +11696,7 @@
       </c>
       <c r="I22" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A22-'BPEiC-CO2'!$A$2)</f>
-        <v>11609020103.535423</v>
+        <v>11269575071.268305</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -11710,7 +11726,7 @@
       </c>
       <c r="I23" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A23-'BPEiC-CO2'!$A$2)</f>
-        <v>11489977560.514433</v>
+        <v>11154013304.359039</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11740,7 +11756,7 @@
       </c>
       <c r="I24" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A24-'BPEiC-CO2'!$A$2)</f>
-        <v>11372155717.166843</v>
+        <v>11039636544.150269</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11770,7 +11786,7 @@
       </c>
       <c r="I25" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A25-'BPEiC-CO2'!$A$2)</f>
-        <v>11255542056.054312</v>
+        <v>10926432639.210619</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11800,7 +11816,7 @@
       </c>
       <c r="I26" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A26-'BPEiC-CO2'!$A$2)</f>
-        <v>11140124188.096243</v>
+        <v>10814389562.713312</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -11830,7 +11846,7 @@
       </c>
       <c r="I27" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A27-'BPEiC-CO2'!$A$2)</f>
-        <v>11025889851.253571</v>
+        <v>10703495411.158438</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -11860,7 +11876,7 @@
       </c>
       <c r="I28" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A28-'BPEiC-CO2'!$A$2)</f>
-        <v>10912826909.226032</v>
+        <v>10593738403.108313</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11890,7 +11906,7 @@
       </c>
       <c r="I29" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A29-'BPEiC-CO2'!$A$2)</f>
-        <v>10800923350.162806</v>
+        <v>10485106877.935823</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -11920,7 +11936,7 @@
       </c>
       <c r="I30" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A30-'BPEiC-CO2'!$A$2)</f>
-        <v>10690167285.386364</v>
+        <v>10377589294.585594</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -11950,7 +11966,7 @@
       </c>
       <c r="I31" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A31-'BPEiC-CO2'!$A$2)</f>
-        <v>10580546948.129419</v>
+        <v>10271174230.347857</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -11980,7 +11996,7 @@
       </c>
       <c r="I32" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A32-'BPEiC-CO2'!$A$2)</f>
-        <v>10472050692.284817</v>
+        <v>10165850379.644911</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -12010,7 +12026,7 @@
       </c>
       <c r="I33" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A33-'BPEiC-CO2'!$A$2)</f>
-        <v>10364666991.168247</v>
+        <v>10061606552.829994</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -12040,7 +12056,7 @@
       </c>
       <c r="I34" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A34-'BPEiC-CO2'!$A$2)</f>
-        <v>10258384436.293642</v>
+        <v>9958431674.9985085</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -12070,7 +12086,7 @@
       </c>
       <c r="I35" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A35-'BPEiC-CO2'!$A$2)</f>
-        <v>10153191736.161144</v>
+        <v>9856314784.8114033</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -12100,7 +12116,7 @@
       </c>
       <c r="I36" s="10">
         <f>'Climate Ready Hong Kong'!$F$77*'Climate Ready Hong Kong'!$D$81*(1-'Climate Ready Hong Kong'!$E$85)^('BPEiC-CO2'!A36-'BPEiC-CO2'!$A$2)</f>
-        <v>10049077715.057482</v>
+        <v>9755245033.3306561</v>
       </c>
     </row>
   </sheetData>
@@ -12116,8 +12132,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -13187,17 +13203,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="40ddae6b2e673ca4350ee4f9e73461e0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e116a0b9e2b9814d46da3cedae238ac" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
     <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
@@ -13231,12 +13238,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="统一合规性策略属性" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="统一合规性策略 UI 操作" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -13245,7 +13252,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="共享对象:" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13264,7 +13271,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="共享对象详细信息" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -13339,8 +13346,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13429,6 +13436,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C5BB1B-EB97-42DF-8F71-4582F628DE2F}">
   <ds:schemaRefs>
@@ -13448,13 +13464,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D04A93-B2BE-4023-B9EA-DB69FD81F835}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41FC07A-574F-4FC2-8244-4C5807C37668}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBC1D7D-4C34-4B72-9BA2-4501CF28BBBE}"/>
 </file>